--- a/Runtime.xlsx
+++ b/Runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABD30B6-ABD8-415F-8641-C72B6D14899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452C828A-CE55-494C-8163-3A81FF61F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="722" xr2:uid="{FFA3DE5C-D8F6-4F0F-AF88-A4AB23000E83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="722" activeTab="4" xr2:uid="{FFA3DE5C-D8F6-4F0F-AF88-A4AB23000E83}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonts" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -287,11 +287,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3311,6 +3323,24 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Empty T(2,n)'!$C$2:$F$2</c:f>
@@ -8534,7 +8564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2A4547-6195-4FCF-A934-18024979D866}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -10521,7 +10551,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10635,10 +10665,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27971C5B-ADAF-49F2-9A71-19C266F2EE0F}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10646,17 +10676,22 @@
     <col min="6" max="6" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -10673,8 +10708,23 @@
       <c r="F2" s="5">
         <v>5</v>
       </c>
+      <c r="G2" s="5">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -10687,14 +10737,29 @@
       <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>8</v>
       </c>
       <c r="F3" s="8">
         <v>16</v>
       </c>
+      <c r="G3" s="8">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8">
+        <v>64</v>
+      </c>
+      <c r="I3" s="8">
+        <v>128</v>
+      </c>
+      <c r="J3" s="8">
+        <v>256</v>
+      </c>
+      <c r="K3" s="8">
+        <v>512</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -10705,24 +10770,34 @@
       <c r="D4" s="7">
         <v>36</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>183</v>
       </c>
       <c r="F4" s="9">
         <v>898</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>1</v>
@@ -10739,8 +10814,23 @@
       <c r="F7" s="5">
         <v>5</v>
       </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -10753,14 +10843,29 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>6</v>
       </c>
       <c r="F8" s="8">
         <v>10</v>
       </c>
+      <c r="G8" s="8">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8">
+        <v>72</v>
+      </c>
+      <c r="J8" s="8">
+        <v>136</v>
+      </c>
+      <c r="K8" s="8">
+        <v>272</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -10771,17 +10876,22 @@
       <c r="D9" s="7">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>78</v>
       </c>
       <c r="F9" s="9">
         <v>303</v>
       </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
